--- a/biology/Botanique/Staphylier_à_trois_folioles/Staphylier_à_trois_folioles.xlsx
+++ b/biology/Botanique/Staphylier_à_trois_folioles/Staphylier_à_trois_folioles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Staphylier_%C3%A0_trois_folioles</t>
+          <t>Staphylier_à_trois_folioles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Staphylea trifolia
 Le Staphylier à trois folioles (Staphylea trifolia) est une espèce d’arbre présente dans la partie orientale de l’Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Staphylier_%C3%A0_trois_folioles</t>
+          <t>Staphylier_à_trois_folioles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au nord, l’arbre est présent jusque dans les provinces canadiennes de l’Ontario et du Québec tandis qu’au sud il est présent jusqu’en Floride. À l’ouest, son aire d’extension s’étend jusqu’au Nebraska et en Arkansas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au nord, l’arbre est présent jusque dans les provinces canadiennes de l’Ontario et du Québec tandis qu’au sud il est présent jusqu’en Floride. À l’ouest, son aire d’extension s’étend jusqu’au Nebraska et en Arkansas.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Staphylier_%C3%A0_trois_folioles</t>
+          <t>Staphylier_à_trois_folioles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille peut atteindre  11 m de haut. Ses feuilles sont opposées et découpées en trois folioles pouvant chacun atteindre 10 cm de long pour 5 cm de large.
 Au printemps, il se couvre de fleurs blanches, suivies de fruits trilobés, vert tendre, en forme de vessies pendantes dans lesquelles apparaissent de grosses semences noires.
